--- a/biology/Histoire de la zoologie et de la botanique/Antenor_Leitão_de_Carvalho/Antenor_Leitão_de_Carvalho.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Antenor_Leitão_de_Carvalho/Antenor_Leitão_de_Carvalho.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Antenor_Leit%C3%A3o_de_Carvalho</t>
+          <t>Antenor_Leitão_de_Carvalho</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antenor Leitão de Carvalho est un herpétologiste et ichtyologiste brésilien, né le 15 avril 1910 et décédé le 11 décembre 1985  à Rio de Janeiro.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Antenor_Leit%C3%A3o_de_Carvalho</t>
+          <t>Antenor_Leitão_de_Carvalho</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Taxons nommés en son honneur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Pipa carvalhoi (Miranda-Ribeiro, 1937)
@@ -527,16 +541,16 @@
 Cynolebias carvalhoi Myers, 1947
 Cynolebias antenori Myers, 1952
 Icthyocephalus antenori Travassos &amp; Kloss, 1959
-Amphisbaena carvalhoi Gans, 1965[1]
+Amphisbaena carvalhoi Gans, 1965
 Odontophrynus carvalhoi Savage &amp; Cei, 1965
-Micrurus lemniscatus carvalhoi Roze, 1967[1]
+Micrurus lemniscatus carvalhoi Roze, 1967
 Syncope antenori Walker, 1973
 Syncope carvalhoi Nelson, 1975
 Bokermannohyla carvalhoi (Peixoto, 1981)
 Zachaenus carvalhoi Izecksohn, 1983
-Panopa carvalhoi Rebouças &amp; Vanzolini, 1990[1]
+Panopa carvalhoi Rebouças &amp; Vanzolini, 1990
 Dendrophryniscus carvalhoi Izecksohn, 1994
-Colobosauroides carvalhoi Soares &amp; Caramaschi, 1998[1]
+Colobosauroides carvalhoi Soares &amp; Caramaschi, 1998
 </t>
         </is>
       </c>
@@ -547,7 +561,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Antenor_Leit%C3%A3o_de_Carvalho</t>
+          <t>Antenor_Leitão_de_Carvalho</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -565,7 +579,9 @@
           <t>Taxons décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Arcovomer Carvalho, 1954
@@ -594,7 +610,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Antenor_Leit%C3%A3o_de_Carvalho</t>
+          <t>Antenor_Leitão_de_Carvalho</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -612,7 +628,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Nomura, 1993 : A obra científica de Antenor Leitão de Carvalho (1910-1985). Revista Brasileira de Zoologia, vol. 10, n. 3, p. 545-552 (texte)</t>
         </is>
